--- a/Change Matrix/matrix_all_years_v4.xlsx
+++ b/Change Matrix/matrix_all_years_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/13046103_student_uts_edu_au/Documents/PhD_UTS/Stage 3/Master Data Sheets/R Calculations/phd_analysis_code/Change Matrix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:40009_{0C63F327-A4BC-4FD8-82FB-151C24D90CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CE6786D-0DA3-437A-AD24-231A2B76AC26}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="13_ncr:40009_{0C63F327-A4BC-4FD8-82FB-151C24D90CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39150E05-DDBF-422F-A007-458D18534DB6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix_1990_1995" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
     <sheet name="matrix_2010_2015" sheetId="5" r:id="rId5"/>
     <sheet name="matrix_2015_2020" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">matrix_1990_1995!$B$15:$B$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">matrix_1990_1995!$C$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">matrix_1990_1995!$C$15:$C$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">matrix_1990_1995!$D$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">matrix_1990_1995!$D$15:$D$20</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">matrix_1990_1995!$E$15:$E$20</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="30">
   <si>
     <t>Water</t>
   </si>
@@ -157,21 +149,40 @@
     <t>2015-2020</t>
   </si>
   <si>
-    <t>Annual Change Intensity</t>
-  </si>
-  <si>
     <t>Annual Change Area (%)</t>
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>From Water</t>
+  </si>
+  <si>
+    <t>From Agri</t>
+  </si>
+  <si>
+    <t>Transition Level Gain in Built</t>
+  </si>
+  <si>
+    <t>From Barren</t>
+  </si>
+  <si>
+    <t>From Vegetation</t>
+  </si>
+  <si>
+    <t>Uniform (Wtn)</t>
+  </si>
+  <si>
+    <t>Interval Level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -724,7 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,18 +753,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -901,19 +918,19 @@
                   <c:v>11.47735966338338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.420675145835325</c:v>
+                  <c:v>18.419464150176605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.039256000765036</c:v>
+                  <c:v>11.03496896228275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.227001051926939</c:v>
+                  <c:v>10.221930165178172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.114492684326288</c:v>
+                  <c:v>12.107545637006595</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.193387204743233</c:v>
+                  <c:v>12.188870433878618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,19 +1008,19 @@
                   <c:v>2.2954719326766759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6841350291670647</c:v>
+                  <c:v>3.6838928300353215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2078512001530073</c:v>
+                  <c:v>2.2069937924565499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0454002103853877</c:v>
+                  <c:v>2.0443860330356345</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4228985368652576</c:v>
+                  <c:v>2.4215091274013187</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4386774409486467</c:v>
+                  <c:v>2.4377740867757236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,7 +1350,312 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>matrix_1990_1995!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interval Change Area (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>matrix_1990_1995!$B$15:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1990-1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1995-2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000-2005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005-2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010-2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015-2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>matrix_1990_1995!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.47735966338338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.419464150176605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.03496896228275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.221930165178172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.107545637006595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.188870433878618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-548C-407C-9C70-F4DFB6D2EE55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="2049250880"/>
+        <c:axId val="2049243808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2049250880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2049243808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2049243808"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049250880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1889,20 +2211,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390231</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400795</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19643</xdr:rowOff>
+      <xdr:rowOff>93765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>553016</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>725710</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95123</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1925,8 +2752,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6881885" y="385989"/>
-          <a:ext cx="4570076" cy="2743245"/>
+          <a:off x="11614318" y="457447"/>
+          <a:ext cx="4547229" cy="2753422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1937,16 +2764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>876299</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>679937</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>107730</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>120160</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>128953</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>411100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>106488</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1966,6 +2793,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11948</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>335279</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143914</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3497EF24-CDCD-40C8-8259-6056D791DBBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2271,10 +3134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2282,24 +3145,25 @@
     <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.21875" customWidth="1"/>
     <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="16">
         <v>1995</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -2323,8 +3187,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>1990</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2346,15 +3210,16 @@
         <v>7.3</v>
       </c>
       <c r="H3">
-        <v>56.7</v>
+        <f>SUM(C3:G3)</f>
+        <v>56.8</v>
       </c>
       <c r="I3" s="1">
-        <f>C3-SUM(D3:G3)</f>
-        <v>29.799999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+        <f>SUM(D3:G3)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2374,6 +3239,7 @@
         <v>12</v>
       </c>
       <c r="H4">
+        <f>SUM(C4:G4)</f>
         <v>371</v>
       </c>
       <c r="I4" s="1">
@@ -2381,8 +3247,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2402,15 +3268,16 @@
         <v>36.4</v>
       </c>
       <c r="H5">
-        <v>779.7</v>
+        <f t="shared" ref="H5:H7" si="0">SUM(C5:G5)</f>
+        <v>779.59999999999991</v>
       </c>
       <c r="I5" s="1">
         <f>C5+D5+F5+G5</f>
         <v>133.29999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2430,6 +3297,7 @@
         <v>804.2</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
         <v>13137.4</v>
       </c>
       <c r="I6" s="1">
@@ -2437,8 +3305,8 @@
         <v>962.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2458,46 +3326,56 @@
         <v>1671.4</v>
       </c>
       <c r="H7">
-        <v>2386.3000000000002</v>
+        <f t="shared" si="0"/>
+        <v>2386.4</v>
       </c>
       <c r="I7" s="1">
         <f>C7+D7+E7+F7</f>
         <v>715</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>71.7</v>
+        <f>SUM(C3:C7)</f>
+        <v>71.699999999999989</v>
       </c>
       <c r="D8">
-        <v>368.5</v>
+        <f>SUM(D3:D7)</f>
+        <v>368.7</v>
       </c>
       <c r="E8">
-        <v>831.2</v>
+        <f>SUM(E3:E7)</f>
+        <v>831.30000000000007</v>
       </c>
       <c r="F8">
-        <v>12928.3</v>
+        <f>SUM(F3:F7)</f>
+        <v>12928.199999999999</v>
       </c>
       <c r="G8">
-        <v>2531.4</v>
+        <f>SUM(G3:G7)</f>
+        <v>2531.3000000000002</v>
       </c>
       <c r="H8">
         <v>16731.2</v>
       </c>
       <c r="I8" s="4">
         <f>SUM(I3:I7)</f>
-        <v>1936.6</v>
+        <v>1920.3</v>
       </c>
       <c r="J8">
         <f>(I8/H8)/5*100</f>
-        <v>2.3149564884766183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.2954719326766759</v>
+      </c>
+      <c r="M8">
+        <f>SUM(C8:G8)</f>
+        <v>16731.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2526,7 +3404,7 @@
         <v>1920.3000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>8</v>
       </c>
@@ -2535,7 +3413,7 @@
         <v>2.2954719326766759</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>9</v>
       </c>
@@ -2546,34 +3424,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <f>H9/H8*100</f>
         <v>11.47735966338338</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <f>H10</f>
         <v>2.2954719326766759</v>
       </c>
@@ -2581,143 +3459,185 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <f>matrix_1995_2000!H9/matrix_1995_2000!H8*100</f>
-        <v>18.420675145835325</v>
-      </c>
-      <c r="D16" s="13">
+        <v>18.419464150176605</v>
+      </c>
+      <c r="D16" s="11">
         <f>matrix_1995_2000!H10</f>
-        <v>3.6841350291670647</v>
+        <v>3.6838928300353215</v>
       </c>
       <c r="E16">
         <v>2.52</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <f>matrix_2000_2005!H9/matrix_2000_2005!H8*100</f>
-        <v>11.039256000765036</v>
-      </c>
-      <c r="D17" s="13">
+        <v>11.03496896228275</v>
+      </c>
+      <c r="D17" s="11">
         <f>matrix_2000_2005!H10</f>
-        <v>2.2078512001530073</v>
+        <v>2.2069937924565499</v>
       </c>
       <c r="E17">
         <v>2.52</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <f>matrix_2005_2010!H9/matrix_2005_2010!H8*100</f>
-        <v>10.227001051926939</v>
-      </c>
-      <c r="D18" s="13">
+        <v>10.221930165178172</v>
+      </c>
+      <c r="D18" s="11">
         <f>matrix_2005_2010!H10</f>
-        <v>2.0454002103853877</v>
+        <v>2.0443860330356345</v>
       </c>
       <c r="E18">
         <v>2.52</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <f>matrix_2010_2015!H9/matrix_2010_2015!H8*100</f>
-        <v>12.114492684326288</v>
-      </c>
-      <c r="D19" s="13">
+        <v>12.107545637006595</v>
+      </c>
+      <c r="D19" s="11">
         <f>matrix_2010_2015!H10</f>
-        <v>2.4228985368652576</v>
+        <v>2.4215091274013187</v>
       </c>
       <c r="E19">
         <v>2.52</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <f>matrix_2015_2020!H9/matrix_2015_2020!H8*100</f>
-        <v>12.193387204743233</v>
-      </c>
-      <c r="D20" s="13">
+        <v>12.188870433878618</v>
+      </c>
+      <c r="D20" s="11">
         <f>matrix_2015_2020!H10</f>
-        <v>2.4386774409486467</v>
+        <v>2.4377740867757236</v>
       </c>
       <c r="E20">
         <v>2.52</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <f>(C9/C8)/5*100</f>
-        <v>7.9218967921896786</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+        <v>7.9218967921896795</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23">
+        <f>(E6/H6)/5*100</f>
+        <v>0.14264618569884455</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <f>(D9/D8)/5*100</f>
-        <v>5.0854816824966083</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+        <v>5.0827230810957431</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="14">
+        <f>(E7/H7)/5*100</f>
+        <v>0.65454240697284605</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <f>(E9/E8)/5*100</f>
-        <v>4.4513955726660246</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+        <v>4.4508600986406828</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25">
+        <f>(E4/H4)/5*100</f>
+        <v>0.63072776280323439</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="11">
         <f>(F9/F8)/5*100</f>
-        <v>1.1653504327715167</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+        <v>1.1653594467907364</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <f>(E3/H3)/5*100</f>
+        <v>0.52816901408450712</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="11">
         <f>(G9/G8)/5*100</f>
-        <v>6.793869005293514</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="15.6" x14ac:dyDescent="0.35">
+        <v>6.7941373997550665</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <f>H10</f>
         <v>2.2954719326766759</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28">
+        <f>(E9/H28)/5*100</f>
+        <v>0.23195165375260166</v>
+      </c>
+      <c r="H28">
+        <f>H3+H4+H6+H7</f>
+        <v>15951.599999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2734,10 +3654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2751,16 +3671,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="12">
+      <c r="B1" s="16">
         <v>2000</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -2787,7 +3707,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="15">
         <v>1995</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2809,15 +3729,16 @@
         <v>25.1</v>
       </c>
       <c r="H3">
-        <v>56.7</v>
+        <f>SUM(C3:G3)</f>
+        <v>71.7</v>
       </c>
       <c r="I3" s="1">
-        <f>C3-SUM(D3:G3)</f>
-        <v>-27.099999999999998</v>
+        <f>SUM(D3:G3)</f>
+        <v>49.4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2837,7 +3758,8 @@
         <v>38.1</v>
       </c>
       <c r="H4">
-        <v>371</v>
+        <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
+        <v>368.5</v>
       </c>
       <c r="I4" s="1">
         <f>C4+E4+F4+G4</f>
@@ -2845,7 +3767,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2865,7 +3787,8 @@
         <v>43.7</v>
       </c>
       <c r="H5">
-        <v>779.7</v>
+        <f t="shared" si="0"/>
+        <v>831.2</v>
       </c>
       <c r="I5" s="1">
         <f>C5+D5+F5+G5</f>
@@ -2873,7 +3796,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2893,7 +3816,8 @@
         <v>682.3</v>
       </c>
       <c r="H6">
-        <v>13137.4</v>
+        <f t="shared" si="0"/>
+        <v>12928.9</v>
       </c>
       <c r="I6" s="1">
         <f>C6+D6+E6+G6</f>
@@ -2901,7 +3825,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2921,7 +3845,8 @@
         <v>967.4</v>
       </c>
       <c r="H7">
-        <v>2386.3000000000002</v>
+        <f t="shared" si="0"/>
+        <v>2532</v>
       </c>
       <c r="I7" s="1">
         <f>C7+D7+E7+F7</f>
@@ -2929,42 +3854,48 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>71.7</v>
+        <f>SUM(C3:C7)</f>
+        <v>64.2</v>
       </c>
       <c r="D8">
-        <v>368.5</v>
+        <f t="shared" ref="D8:G8" si="1">SUM(D3:D7)</f>
+        <v>305.79999999999995</v>
       </c>
       <c r="E8">
-        <v>831.2</v>
+        <f t="shared" si="1"/>
+        <v>1370.2</v>
       </c>
       <c r="F8">
-        <v>12928.3</v>
+        <f t="shared" si="1"/>
+        <v>13235.5</v>
       </c>
       <c r="G8">
-        <v>2531.4</v>
+        <f t="shared" si="1"/>
+        <v>1756.6</v>
       </c>
       <c r="H8">
-        <v>16731.2</v>
+        <f>SUM(H3:H7)</f>
+        <v>16732.3</v>
       </c>
       <c r="I8" s="4">
         <f>SUM(I3:I7)</f>
-        <v>3005.5</v>
+        <v>3082</v>
       </c>
       <c r="J8">
         <f>(I8/H8)/5*100</f>
-        <v>3.5926891077746963</v>
+        <v>3.6838928300353215</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <f>SUM(C4:C7)</f>
         <v>41.9</v>
       </c>
@@ -2995,7 +3926,66 @@
       </c>
       <c r="H10" s="5">
         <f>(H9/H8)/5*100</f>
-        <v>3.6841350291670647</v>
+        <v>3.6838928300353215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <f>(C9/C8)/5*100</f>
+        <v>13.052959501557632</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <f>(D9/D8)/5*100</f>
+        <v>10.680183126226295</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11">
+        <f>(E9/E8)/5*100</f>
+        <v>9.3957086556707061</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11">
+        <f>(F9/F8)/5*100</f>
+        <v>2.1818593932983266</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="11">
+        <f>(G9/G8)/5*100</f>
+        <v>8.9855402482067621</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="11">
+        <f>H3</f>
+        <v>71.7</v>
       </c>
     </row>
   </sheetData>
@@ -3013,30 +4003,32 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="12">
+      <c r="B1" s="16">
         <v>2005</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -3063,57 +4055,59 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="15">
         <v>2000</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="17">
         <v>30.7</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="18">
         <v>1.4</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="18">
         <v>3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="18">
         <v>11.4</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="18">
         <v>17.8</v>
       </c>
-      <c r="H3">
-        <v>56.7</v>
-      </c>
-      <c r="I3" s="1">
-        <f>C3-SUM(D3:G3)</f>
-        <v>-2.9000000000000021</v>
+      <c r="H3" s="11">
+        <f>SUM(C3:G3)</f>
+        <v>64.3</v>
+      </c>
+      <c r="I3" s="19">
+        <f>SUM(D3:G3)</f>
+        <v>33.6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="18">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="17">
         <v>127.9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="18">
         <v>40.299999999999997</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="18">
         <v>77.400000000000006</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="18">
         <v>58.4</v>
       </c>
-      <c r="H4">
-        <v>371</v>
+      <c r="H4" s="11">
+        <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
+        <v>306</v>
       </c>
       <c r="I4" s="1">
         <f>C4+E4+F4+G4</f>
@@ -3121,27 +4115,28 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="18">
         <v>1.4</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="18">
         <v>13.2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="17">
         <v>1161</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="18">
         <v>117.8</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="18">
         <v>76.900000000000006</v>
       </c>
-      <c r="H5">
-        <v>779.7</v>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>1370.3</v>
       </c>
       <c r="I5" s="1">
         <f>C5+D5+F5+G5</f>
@@ -3149,27 +4144,28 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="18">
         <v>17</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="18">
         <v>113.3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="18">
         <v>135.1</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="17">
         <v>12697.9</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="18">
         <v>277.5</v>
       </c>
-      <c r="H6">
-        <v>13137.4</v>
+      <c r="H6" s="11">
+        <f t="shared" si="0"/>
+        <v>13240.8</v>
       </c>
       <c r="I6" s="1">
         <f>C6+D6+E6+G6</f>
@@ -3177,27 +4173,28 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="18">
         <v>18.899999999999999</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="18">
         <v>37.700000000000003</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="18">
         <v>218.6</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="18">
         <v>607.9</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="17">
         <v>873.2</v>
       </c>
-      <c r="H7">
-        <v>2386.3000000000002</v>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>1756.3</v>
       </c>
       <c r="I7" s="1">
         <f>C7+D7+E7+F7</f>
@@ -3205,35 +4202,41 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>71.7</v>
+      <c r="C8" s="11">
+        <f>C3+C4+C5+C6+C7</f>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>368.5</v>
+        <f t="shared" ref="D8:G8" si="1">SUM(D3:D7)</f>
+        <v>293.5</v>
       </c>
       <c r="E8">
-        <v>831.2</v>
+        <f t="shared" si="1"/>
+        <v>1557.9999999999998</v>
       </c>
       <c r="F8">
-        <v>12928.3</v>
+        <f t="shared" si="1"/>
+        <v>13512.4</v>
       </c>
       <c r="G8">
-        <v>2531.4</v>
-      </c>
-      <c r="H8">
-        <v>16731.2</v>
+        <f t="shared" si="1"/>
+        <v>1303.8000000000002</v>
+      </c>
+      <c r="H8" s="11">
+        <f>SUM(C8:G8)</f>
+        <v>16737.7</v>
       </c>
       <c r="I8" s="4">
         <f>SUM(I3:I7)</f>
-        <v>1810.5</v>
+        <v>1847</v>
       </c>
       <c r="J8">
         <f>(I8/H8)/5*100</f>
-        <v>2.1642201396193936</v>
+        <v>2.2069937924565499</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3271,7 +4274,7 @@
       </c>
       <c r="H10" s="5">
         <f>(H9/H8)/5*100</f>
-        <v>2.2078512001530073</v>
+        <v>2.2069937924565499</v>
       </c>
     </row>
   </sheetData>
@@ -3289,7 +4292,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3303,16 +4306,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="12">
+      <c r="B1" s="16">
         <v>2010</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -3339,7 +4342,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="15">
         <v>2005</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3361,15 +4364,16 @@
         <v>14.1</v>
       </c>
       <c r="H3">
-        <v>56.7</v>
+        <f>SUM(C3:G3)</f>
+        <v>69.899999999999991</v>
       </c>
       <c r="I3" s="1">
-        <f>C3-SUM(D3:G3)</f>
-        <v>-15.899999999999999</v>
+        <f>SUM(D3:G3)</f>
+        <v>42.9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3389,7 +4393,8 @@
         <v>43.5</v>
       </c>
       <c r="H4">
-        <v>371</v>
+        <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
+        <v>293.5</v>
       </c>
       <c r="I4" s="1">
         <f>C4+E4+F4+G4</f>
@@ -3397,7 +4402,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3417,7 +4422,8 @@
         <v>81</v>
       </c>
       <c r="H5">
-        <v>779.7</v>
+        <f t="shared" si="0"/>
+        <v>1557.9</v>
       </c>
       <c r="I5" s="1">
         <f>C5+D5+F5+G5</f>
@@ -3425,7 +4431,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -3445,7 +4451,8 @@
         <v>455.1</v>
       </c>
       <c r="H6">
-        <v>13137.4</v>
+        <f t="shared" si="0"/>
+        <v>13514.400000000001</v>
       </c>
       <c r="I6" s="1">
         <f>C6+D6+E6+G6</f>
@@ -3453,7 +4460,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -3473,7 +4480,8 @@
         <v>722.7</v>
       </c>
       <c r="H7">
-        <v>2386.3000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1303.8000000000002</v>
       </c>
       <c r="I7" s="1">
         <f>C7+D7+E7+F7</f>
@@ -3481,35 +4489,41 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>71.7</v>
+        <f>SUM(C3:C7)</f>
+        <v>67.599999999999994</v>
       </c>
       <c r="D8">
-        <v>368.5</v>
+        <f t="shared" ref="D8:G8" si="1">SUM(D3:D7)</f>
+        <v>176.10000000000002</v>
       </c>
       <c r="E8">
-        <v>831.2</v>
+        <f t="shared" si="1"/>
+        <v>1728.3</v>
       </c>
       <c r="F8">
-        <v>12928.3</v>
+        <f t="shared" si="1"/>
+        <v>13451.1</v>
       </c>
       <c r="G8">
-        <v>2531.4</v>
+        <f t="shared" si="1"/>
+        <v>1316.4</v>
       </c>
       <c r="H8">
-        <v>16731.2</v>
+        <f>SUM(C8:G8)</f>
+        <v>16739.5</v>
       </c>
       <c r="I8" s="4">
         <f>SUM(I3:I7)</f>
-        <v>1652.3000000000002</v>
+        <v>1711.1</v>
       </c>
       <c r="J8">
         <f>(I8/H8)/5*100</f>
-        <v>1.9751123649230182</v>
+        <v>2.044386033035634</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3547,7 +4561,7 @@
       </c>
       <c r="H10" s="5">
         <f>(H9/H8)/5*100</f>
-        <v>2.0454002103853877</v>
+        <v>2.0443860330356345</v>
       </c>
     </row>
   </sheetData>
@@ -3565,7 +4579,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3579,16 +4593,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="12">
+      <c r="B1" s="16">
         <v>2015</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -3615,7 +4629,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="15">
         <v>2010</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3637,15 +4651,16 @@
         <v>20.100000000000001</v>
       </c>
       <c r="H3">
-        <v>56.7</v>
+        <f>SUM(C3:G3)</f>
+        <v>67.699999999999989</v>
       </c>
       <c r="I3" s="1">
-        <f>C3-SUM(D3:G3)</f>
-        <v>-20.099999999999998</v>
+        <f>SUM(D3:G3)</f>
+        <v>43.9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3665,7 +4680,8 @@
         <v>11.4</v>
       </c>
       <c r="H4">
-        <v>371</v>
+        <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
+        <v>176.3</v>
       </c>
       <c r="I4" s="1">
         <f>C4+E4+F4+G4</f>
@@ -3673,7 +4689,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3693,7 +4709,8 @@
         <v>37.6</v>
       </c>
       <c r="H5">
-        <v>779.7</v>
+        <f t="shared" si="0"/>
+        <v>1728.2999999999997</v>
       </c>
       <c r="I5" s="1">
         <f>C5+D5+F5+G5</f>
@@ -3701,7 +4718,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -3721,7 +4738,8 @@
         <v>421.2</v>
       </c>
       <c r="H6">
-        <v>13137.4</v>
+        <f t="shared" si="0"/>
+        <v>13452.3</v>
       </c>
       <c r="I6" s="1">
         <f>C6+D6+E6+G6</f>
@@ -3729,7 +4747,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -3749,7 +4767,8 @@
         <v>580.9</v>
       </c>
       <c r="H7">
-        <v>2386.3000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1316.1999999999998</v>
       </c>
       <c r="I7" s="1">
         <f>C7+D7+E7+F7</f>
@@ -3757,35 +4776,41 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>71.7</v>
+        <f>SUM(C3:C7)</f>
+        <v>63.1</v>
       </c>
       <c r="D8">
-        <v>368.5</v>
+        <f t="shared" ref="D8:G8" si="1">SUM(D3:D7)</f>
+        <v>283.60000000000002</v>
       </c>
       <c r="E8">
-        <v>831.2</v>
+        <f t="shared" si="1"/>
+        <v>2441</v>
       </c>
       <c r="F8">
-        <v>12928.3</v>
+        <f t="shared" si="1"/>
+        <v>12881.899999999998</v>
       </c>
       <c r="G8">
-        <v>2531.4</v>
+        <f t="shared" si="1"/>
+        <v>1071.1999999999998</v>
       </c>
       <c r="H8">
-        <v>16731.2</v>
+        <f>SUM(C8:G8)</f>
+        <v>16740.8</v>
       </c>
       <c r="I8" s="4">
         <f>SUM(I3:I7)</f>
-        <v>1962.8999999999999</v>
+        <v>2026.8999999999999</v>
       </c>
       <c r="J8">
         <f>(I8/H8)/5*100</f>
-        <v>2.3463947594912495</v>
+        <v>2.4215091274013187</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3823,7 +4848,7 @@
       </c>
       <c r="H10" s="5">
         <f>(H9/H8)/5*100</f>
-        <v>2.4228985368652576</v>
+        <v>2.4215091274013187</v>
       </c>
     </row>
   </sheetData>
@@ -3840,8 +4865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3855,16 +4880,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="12">
+      <c r="B1" s="16">
         <v>2020</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -3891,7 +4916,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="15">
         <v>2015</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3913,15 +4938,16 @@
         <v>12.2</v>
       </c>
       <c r="H3">
-        <v>56.7</v>
+        <f>SUM(C3:G3)</f>
+        <v>63.100000000000009</v>
       </c>
       <c r="I3" s="1">
-        <f>C3-SUM(D3:G3)</f>
-        <v>6.3000000000000043</v>
+        <f>SUM(D3:G3)</f>
+        <v>28.4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3941,7 +4967,8 @@
         <v>66.400000000000006</v>
       </c>
       <c r="H4">
-        <v>371</v>
+        <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
+        <v>283.70000000000005</v>
       </c>
       <c r="I4" s="1">
         <f>C4+E4+F4+G4</f>
@@ -3949,7 +4976,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3969,7 +4996,8 @@
         <v>151.1</v>
       </c>
       <c r="H5">
-        <v>779.7</v>
+        <f t="shared" si="0"/>
+        <v>2441.1999999999998</v>
       </c>
       <c r="I5" s="1">
         <f>C5+D5+F5+G5</f>
@@ -3977,7 +5005,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -3997,7 +5025,8 @@
         <v>504.7</v>
       </c>
       <c r="H6">
-        <v>13137.4</v>
+        <f t="shared" si="0"/>
+        <v>12878.6</v>
       </c>
       <c r="I6" s="1">
         <f>C6+D6+E6+G6</f>
@@ -4005,7 +5034,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4025,7 +5054,8 @@
         <v>578.29999999999995</v>
       </c>
       <c r="H7">
-        <v>2386.3000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1070.8</v>
       </c>
       <c r="I7" s="1">
         <f>C7+D7+E7+F7</f>
@@ -4033,35 +5063,41 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>71.7</v>
+        <f>SUM(C3:C7)</f>
+        <v>69.400000000000006</v>
       </c>
       <c r="D8">
-        <v>368.5</v>
+        <f t="shared" ref="D8:G8" si="1">SUM(D3:D7)</f>
+        <v>127</v>
       </c>
       <c r="E8">
-        <v>831.2</v>
+        <f t="shared" si="1"/>
+        <v>2930.9</v>
       </c>
       <c r="F8">
-        <v>12928.3</v>
+        <f t="shared" si="1"/>
+        <v>12297.4</v>
       </c>
       <c r="G8">
-        <v>2531.4</v>
+        <f t="shared" si="1"/>
+        <v>1312.6999999999998</v>
       </c>
       <c r="H8">
-        <v>16731.2</v>
+        <f>SUM(C8:G8)</f>
+        <v>16737.400000000001</v>
       </c>
       <c r="I8" s="4">
         <f>SUM(I3:I7)</f>
-        <v>2018</v>
+        <v>2040.1</v>
       </c>
       <c r="J8">
         <f>(I8/H8)/5*100</f>
-        <v>2.4122597303241848</v>
+        <v>2.4377740867757236</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4099,7 +5135,7 @@
       </c>
       <c r="H10" s="5">
         <f>(H9/H8)/5*100</f>
-        <v>2.4386774409486467</v>
+        <v>2.4377740867757236</v>
       </c>
     </row>
   </sheetData>
